--- a/data/trans_camb/P37_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,45</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 22,51</t>
+          <t>-18,9; 30,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 13,14</t>
+          <t>-29,86; 20,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 15,94</t>
+          <t>-29,69; 19,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 19,06</t>
+          <t>-16,39; 23,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 15,04</t>
+          <t>-14,31; 27,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 11,93</t>
+          <t>-19,5; 20,08</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-13,95; 19,86</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 17,66</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-17,55; 13,35</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,59%</t>
+          <t>-19,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>-15,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>-1,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,15%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-7,76%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 90,08</t>
+          <t>-42,56; 151,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 51,58</t>
+          <t>-64,07; 116,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 90,44</t>
+          <t>-65,62; 93,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 112,96</t>
+          <t>-44,57; 132,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 67,71</t>
+          <t>-39,22; 155,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 50,73</t>
+          <t>-53,22; 119,06</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-35,68; 85,4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-39,61; 77,15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-44,81; 60,93</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>17,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>26,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,23</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,58</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>13,24</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12,97</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,61</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21,68</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 39,7</t>
+          <t>-12,64; 45,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 34,16</t>
+          <t>-20,64; 43,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 22,2</t>
+          <t>-6,72; 57,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 24,92</t>
+          <t>-12,77; 22,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 27,93</t>
+          <t>-8,08; 25,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 24,38</t>
+          <t>-5,69; 31,05</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 31,17</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 31,49</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 41,96</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,39%</t>
+          <t>50,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>77,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>50,71%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>45,65%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40,58%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33,21%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>67,84%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 243,98</t>
+          <t>-37,25; 219,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 208,4</t>
+          <t>-49,48; 212,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 113,36</t>
+          <t>-35,48; 301,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 120,03</t>
+          <t>-34,87; 109,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 137,05</t>
+          <t>-22,3; 119,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 115,65</t>
+          <t>-17,61; 143,59</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-19,97; 133,21</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-25,48; 135,82</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 186,82</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>10,12</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,12</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 8,34</t>
+          <t>-20,63; 13,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 11,89</t>
+          <t>-13,99; 19,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 14,39</t>
+          <t>-14,43; 20,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 13,46</t>
+          <t>-6,72; 21,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 9,03</t>
+          <t>-8,35; 17,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 9,13</t>
+          <t>-3,28; 23,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,76; 13,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 13,63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 17,82</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,97%</t>
+          <t>-11,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,39%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,27%</t>
+          <t>30,76%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21,28%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,06; 39,92</t>
+          <t>-48,37; 52,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,7; 49,65</t>
+          <t>-32,66; 75,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 44,95</t>
+          <t>-34,97; 83,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 44,02</t>
+          <t>-16,84; 85,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 32,91</t>
+          <t>-20,99; 68,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 32,58</t>
+          <t>-7,82; 95,46</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-22,13; 48,38</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-20,57; 47,17</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-10,92; 67,1</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>10,18</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6,79</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 12,26</t>
+          <t>-11,28; 18,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 13,2</t>
+          <t>-13,45; 17,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 15,12</t>
+          <t>-12,5; 18,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 17,01</t>
+          <t>-8,97; 17,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 10,29</t>
+          <t>-7,77; 18,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 11,13</t>
+          <t>-2,15; 23,37</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 13,53</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 13,26</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 16,48</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>28,28%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17,63%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 35,7</t>
+          <t>-24,76; 58,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 38,95</t>
+          <t>-28,9; 53,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 48,05</t>
+          <t>-26,05; 58,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 54,71</t>
+          <t>-22,46; 63,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 29,52</t>
+          <t>-18,6; 63,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 32,0</t>
+          <t>-5,0; 82,94</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-17,81; 40,02</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-16,45; 39,33</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 49,28</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,23</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>15,34</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,16</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 7,41</t>
+          <t>-25,48; 9,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 10,5</t>
+          <t>-24,82; 11,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 17,46</t>
+          <t>-22,56; 12,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 23,69</t>
+          <t>-14,59; 22,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 8,29</t>
+          <t>-12,2; 25,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 13,78</t>
+          <t>-4,61; 34,36</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 10,43</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-15,05; 11,11</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,64; 17,5</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-12,83%</t>
+          <t>-17,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,93%</t>
+          <t>-13,71%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>-8,28%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>48,15%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-5,95%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-1,93%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 23,81</t>
+          <t>-52,6; 30,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 35,03</t>
+          <t>-50,74; 38,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 67,67</t>
+          <t>-45,55; 44,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 90,29</t>
+          <t>-37,65; 98,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 27,9</t>
+          <t>-32,28; 121,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 45,3</t>
+          <t>-12,83; 152,05</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-37,19; 37,56</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-36,39; 39,82</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-20,7; 60,05</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>16,34</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-11,11</t>
+          <t>18,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-17,85</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6,69</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>8,35</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 20,42</t>
+          <t>-15,3; 26,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 24,01</t>
+          <t>-5,72; 34,71</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 5,41</t>
+          <t>-3,82; 38,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-42,08; -2,45</t>
+          <t>-26,04; 15,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 7,4</t>
+          <t>-24,41; 19,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 5,75</t>
+          <t>-20,65; 26,28</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-13,61; 15,12</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; 21,31</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 25,9</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-19,29%</t>
+          <t>65,14%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-30,99%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-8,25%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>17,41%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 70,49</t>
+          <t>-43,46; 152,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 86,67</t>
+          <t>-16,64; 208,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 10,12</t>
+          <t>-10,92; 220,82</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-65,06; -5,3</t>
+          <t>-45,7; 45,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 17,63</t>
+          <t>-41,38; 51,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 13,32</t>
+          <t>-39,74; 74,82</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-30,18; 47,94</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-17,47; 71,62</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-15,74; 85,78</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>8,72</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>8,29</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 9,42</t>
+          <t>-5,12; 12,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 7,63</t>
+          <t>-5,91; 12,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 7,62</t>
+          <t>-1,74; 18,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 8,85</t>
+          <t>-3,54; 10,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,25</t>
+          <t>-2,83; 10,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 6,91</t>
+          <t>2,13; 16,83</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 9,81</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 10,02</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 14,59</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>25,49%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 30,1</t>
+          <t>-13,04; 41,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 24,75</t>
+          <t>-14,88; 39,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 22,95</t>
+          <t>-4,66; 57,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 26,76</t>
+          <t>-9,18; 32,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 21,81</t>
+          <t>-7,8; 35,87</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 20,38</t>
+          <t>5,7; 53,41</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 30,05</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 30,67</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 44,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
